--- a/results/greedy_with_vertex_degree_sort.xlsx
+++ b/results/greedy_with_vertex_degree_sort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,18 +468,18 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>myciel3.col.txt</t>
+          <t>anna.col</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.573562622070312e-05</v>
+        <v>0.0001950263977050781</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[10, 4, 1], [3, 2, 8, 7], [0, 9, 5], [6]]</t>
+          <t>[[17, 76, 132, 60, 119, 29, 114, 125, 136, 121, 46, 16, 133, 116, 109, 97, 64, 51, 21, 13, 118, 101, 37, 23, 128, 124, 85, 70, 65, 55, 47, 4, 2, 1, 0], [35, 77, 53, 28, 67, 100, 8, 108, 52, 48, 111, 93, 57, 103, 96, 89, 83, 81, 61, 59, 54, 43, 24, 131, 127, 123, 110, 104, 95, 74, 68, 62, 40, 9, 120, 113, 112, 106, 87, 86, 42, 41, 38, 30, 26, 22, 14, 3], [94, 88, 20, 6, 126, 58, 56, 129, 15, 122, 130, 27, 102, 66, 39, 34, 10, 79, 49, 7], [73, 63, 99, 69, 117, 105, 92, 78, 36, 12, 11], [71, 135, 91, 75, 45, 33], [137, 72, 50, 5, 25], [134, 32, 44, 31, 18], [115, 19, 84, 82], [98, 107], [90], [80]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -497,18 +497,18 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>inithx.i.1.col</t>
+          <t>le450_15b.col</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006276845932006836</v>
+        <v>0.002167701721191406</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[[16, 1, 862, 861, 859, 853, 850, 849, 847, 842, 839, 838, 837, 835, 834, 833, 832, 830, 827, 823, 821, 820, 819, 818, 817, 816, 815, 814, 813, 812, 811, 810, 805, 804, 801, 799, 798, 796, 794, 792, 791, 790, 787, 782, 780, 775, 773, 772, 769, 768, 766, 763, 762, 761, 759, 758, 756, 754, 752, 751, 748, 743, 741, 740, 739, 737, 736, 735, 726, 724, 722, 719, 718, 716, 714, 713, 709, 705, 701, 700, 698, 693, 691, 690, 689, 687, 686, 685, 684, 682, 680, 677, 676, 670, 668, 667, 666, 665, 660, 652, 649, 642, 638, 636, 633, 631, 628, 624, 622, 621, 617, 613, 608, 606, 599, 596, 589, 585, 581, 580, 579, 577, 570, 569, 567, 562, 560, 558, 557, 555, 554, 553, 552, 550, 547, 539, 537, 536, 535, 534, 532, 531, 530, 528, 527, 526, 525, 523, 522, 521, 519, 518, 516, 515, 514, 513, 511, 510, 508, 504, 502, 501, 498, 496, 494, 492, 489, 488, 487, 483, 482, 474, 470, 469, 468, 467, 463, 461, 458, 456, 455, 449, 448, 446, 439, 438, 437, 435, 433, 432, 428, 426, 425, 423, 418, 416, 415, 414, 412, 411, 410, 409, 407, 405, 402, 398, 397, 395, 394, 393, 391, 390, 389, 387, 385, 382, 380, 379, 374, 369, 366, 362, 360, 358, 356, 354, 353, 351, 349, 347, 345, 342, 340, 334, 332, 331, 329, 325, 323, 321, 319, 318, 316, 315, 314, 310, 309, 307, 302, 300, 299, 298, 297, 295, 294, 293, 292, 290, 288, 285, 283, 280, 278, 274, 272, 268, 264, 262, 259, 258, 251, 249, 248, 247, 246, 245, 243, 242, 236, 234, 230, 227, 225, 222, 220, 217, 215, 212, 210, 205, 202, 197, 194, 193, 188, 183, 180, 178, 177, 176, 175, 171, 170, 168, 166, 163, 160, 159, 157, 156, 155, 154, 153, 152, 150, 149, 148, 147, 146, 145, 143, 139, 137, 135, 134, 130, 128, 127, 126, 125, 124, 123, 122, 121, 119, 117, 113, 110, 109, 106, 103, 100, 96, 93, 92, 91, 34], [0, 31], [2, 30], [72, 80], [73, 81], [74, 82], [29, 11], [28, 12], [27, 10], [26, 13], [75, 83], [76, 84], [77, 85], [79, 86], [78, 87], [25, 15], [101, 111, 98, 95], [24, 14], [23, 88], [22, 9], [21, 8], [20, 7], [19, 6], [18, 5], [17, 4], [107, 3, 46, 105, 102, 99], [89, 192, 559, 112, 500, 637, 679, 524, 181, 190, 189, 185, 179, 733, 731, 729, 662, 480, 477, 807, 806, 797, 757, 734, 663, 481], [94, 90, 578, 350, 505, 520, 493, 533, 706, 657, 639, 616, 499, 440, 618, 503, 619, 473, 465, 462, 452, 732, 730, 728, 712, 655, 620, 478, 476, 475, 471, 466, 457, 454, 453, 450, 447, 436, 429], [108, 191, 116, 603, 587, 497, 491, 48, 507, 600, 584, 115, 708, 659, 651, 601, 512, 506, 444, 186, 184, 182, 711, 710, 661, 654, 653, 602, 472, 464, 459, 451, 445], [53, 348, 271, 138, 38, 840, 593, 582, 120, 604, 614, 529, 495, 269, 47, 517, 266, 235, 612, 509, 341, 328, 326, 263, 233, 226, 221, 216, 211, 206, 201, 198, 707, 658, 650, 592, 441, 343, 330, 240, 231, 228, 223, 218, 213, 207, 199, 195], [39, 97, 32, 270, 244, 158, 357, 229, 204, 187, 372, 597, 586, 858, 855, 607, 595, 371, 370, 289, 141, 35, 860, 856, 615, 611, 610, 609, 591, 583, 378, 377, 339, 327, 322, 239, 238, 232, 224, 219, 214, 209, 203, 200, 196, 114], [208, 133, 265, 142, 118, 367, 286, 365, 361, 287, 281, 857, 854, 605, 598, 594, 590, 588, 376, 375, 373, 363, 140], [237, 132, 277, 267, 167, 368, 364, 359, 276, 174, 164, 162, 161], [40, 257, 826, 338, 131, 346, 36, 324, 169, 282, 279, 275, 273, 173], [333, 546, 256, 825, 37, 129, 634, 320, 656, 647, 664, 165], [55, 41, 625, 545, 738, 490, 486], [54, 723, 626, 544, 779, 789, 778, 640, 809, 808, 803, 802, 645, 648, 646], [104, 717, 543, 675, 66, 485, 484, 479, 632, 644, 643, 629], [383, 241, 542, 674, 52, 641, 635, 630, 627], [64, 541, 255, 673, 824, 336, 51, 381, 388, 344, 384], [42, 540, 254, 672, 822, 335, 800, 136, 355, 151], [392, 538, 253, 771, 671, 725, 59, 442, 720, 337, 770, 767, 764, 352, 172, 144], [401, 252, 70, 669, 43, 50, 750, 44, 460, 747, 746, 386, 727, 721, 443, 61, 33], [400, 250, 49, 68, 828, 765, 788, 760, 785, 749, 745, 744, 836, 795, 793, 753], [399, 57, 67, 548, 623, 863, 829, 845, 786, 784, 783, 777, 776, 755, 846, 742, 556], [396, 56, 678, 575, 715, 549, 852, 844, 843, 565, 831, 781, 774, 688, 566, 65], [62, 260, 574, 703, 317, 681, 851, 696, 564, 563, 841, 697, 551, 296], [45, 573, 312, 261, 702, 848, 695, 694, 305, 683, 561, 306], [404, 572, 311, 699, 304, 303, 692, 413, 291, 284, 60], [403, 571, 308, 704, 301], [427, 406, 568, 421, 313, 422, 69], [424, 576, 420, 419, 408, 58], [63, 417, 71], [434, 431, 430]]</t>
+          <t>[[31, 199, 364, 416, 286, 74, 13, 188, 437, 443, 209, 130, 282, 151, 71, 355, 110, 424, 433, 141, 149, 229, 162, 400, 439, 446, 58, 49, 326, 438, 212, 102, 107, 50, 91, 346, 390, 235], [114, 300, 356, 156, 48, 305, 116, 281, 140, 67, 315, 215, 391, 234, 420, 254, 330, 159, 296, 219, 191, 359, 404, 347, 290, 230, 32, 208, 39, 8, 59, 185, 90, 381, 158, 47, 100, 406, 28], [398, 182, 428, 360, 238, 152, 358, 412, 120, 413, 46, 34, 181, 321, 374, 427, 278, 224, 409, 272, 397, 142, 383, 226, 176, 245, 389, 352], [269, 237, 440, 312, 214, 29, 73, 220, 418, 76, 289, 216, 136, 274, 148, 419, 407, 2, 87, 337, 101, 414, 128, 56, 291], [396, 402, 322, 221, 287, 342, 137, 368, 401, 168, 251, 54, 334, 246, 179, 85, 89, 332, 293, 350, 72, 60, 270, 240, 429, 115, 349, 408], [333, 268, 3, 83, 318, 218, 198, 373, 275, 279, 259, 200, 123, 69, 241, 189, 228, 147, 138, 421, 423, 66, 92, 385, 68, 233, 361, 206, 422, 26], [4, 425, 175, 295, 144, 257, 75, 379, 260, 247, 174, 435, 40, 348, 271, 165, 253, 169, 25, 98, 5, 403, 320, 93, 288, 23, 380, 133, 27], [399, 122, 243, 124, 9, 163, 365, 53, 20, 132, 211, 426, 265, 335, 393, 167, 113, 306, 10, 11, 301, 354, 139, 106], [52, 292, 266, 207, 164, 370, 45, 44, 351, 340, 38, 261, 112, 134, 161, 273, 14, 316, 79, 65, 193, 30, 309, 432, 213, 51], [328, 86, 250, 392, 231, 0, 327, 277, 377, 131, 6, 311, 263, 201, 119, 372, 367, 217, 387, 197, 7, 285, 173, 127, 294], [242, 319, 121, 36, 22, 61, 384, 111, 449, 203, 187, 118, 184, 109, 378, 227, 366, 146, 314, 225, 135, 280, 196, 21, 108, 84, 12, 386], [339, 99, 298, 95, 16, 284, 205, 15, 304, 70, 177, 264, 1, 180, 145, 97, 376, 43, 345, 150, 18, 441, 317, 382, 154, 125], [249, 344, 78, 436, 195, 204, 262, 210, 434, 252, 117, 303, 239, 448, 442, 299, 126, 94, 445, 157, 302, 369, 447, 129, 341, 313], [363, 77, 415, 297, 35, 329, 96, 88, 236, 190, 223, 80, 37, 343, 353, 192, 172, 283, 186, 153, 183, 178, 405, 33, 222, 411], [331, 232, 410, 62, 325, 160, 17, 143, 82, 24, 430, 55, 388, 105, 444, 323, 81, 324, 307, 362, 63, 256, 394, 248], [310, 338, 267, 103, 431, 244, 308, 395, 375, 357, 57, 336, 41, 64, 276], [171, 166, 371, 202, 258, 417, 42, 19, 170], [104, 155, 255, 194]]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -526,18 +526,18 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>queen11_11.col</t>
+          <t>le450_5a.col</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003139972686767578</v>
+        <v>0.002294063568115234</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[[60, 83, 69, 51, 37, 118, 88, 32, 2], [72, 59, 80, 38, 46, 97, 111, 7], [71, 50, 84, 58, 92, 19, 109, 33], [70, 61, 47, 96, 79, 104, 42, 117], [49, 81, 62, 36, 94, 68, 30, 119], [48, 82, 73, 39, 91, 57, 107, 20], [40, 93, 85, 26, 108, 67, 116, 54, 11, 3], [95, 74, 28, 103, 56, 13, 120, 77, 9], [90, 63, 29, 105, 86, 34, 16, 0], [52, 35, 27, 106, 89, 14, 114, 65, 6], [41, 25, 100, 75, 18, 98, 44], [24, 102, 64, 45, 17, 115, 87, 8], [101, 78, 53, 15, 110, 76], [31, 12, 113, 99, 10], [23, 112, 66, 43, 5], [55, 21, 4], [22, 1]]</t>
+          <t>[[338, 324, 209, 270, 392, 390, 250, 215, 80, 222, 155, 59, 429, 210, 105, 423, 260, 220, 190, 365, 262, 54, 440, 387, 5, 174, 158, 360, 376, 330, 232, 127, 402, 389, 243, 90, 45, 160, 100, 217, 212, 405, 430, 395, 249, 137, 30], [369, 165, 63, 25, 189, 285, 31, 211, 159, 245, 205, 156, 84, 213, 36, 383, 364, 240, 65, 60, 371, 342, 70, 403, 134, 71, 420, 295, 101, 355, 288, 326, 301, 19, 305, 195, 396, 275, 180, 79, 16, 377, 238, 432, 281, 96], [362, 337, 199, 187, 39, 32, 182, 89, 109, 35, 359, 269, 197, 413, 85, 449, 379, 114, 407, 354, 226, 113, 104, 3, 357, 278, 257, 294, 290, 258, 18, 372, 147, 444, 374, 298, 228, 384, 67, 422, 297, 252, 73, 247, 142, 22, 8, 398, 87, 53, 233, 223, 82], [412, 140, 411, 11, 445, 263, 401, 272, 261, 161, 112, 110, 350, 291, 191, 171, 125, 267, 225, 314, 196, 58, 341, 335, 179, 64, 145, 91, 416, 404, 346, 304, 251, 201, 176, 166, 9, 259, 111, 66, 0, 351, 286, 181, 116, 358, 381, 271, 1, 336, 306], [239, 439, 183, 38, 282, 141, 72, 253, 124, 410, 287, 143, 323, 313, 173, 62, 57, 41, 406, 428, 418, 284, 248, 52, 33, 436, 368, 353, 349, 325, 283, 169, 34, 28, 13, 198, 149, 68, 363, 123, 118, 373, 188, 148, 399, 348, 277, 308, 167, 98, 78, 128, 329, 419, 321], [102, 356, 139, 417, 14, 433, 421, 391, 331, 299, 186, 2, 361, 81, 46, 40, 446, 437, 307, 302, 266, 129, 230, 206, 86, 441, 425, 289, 172, 136, 21, 438, 316, 200, 280, 185, 131, 76, 375, 339, 221, 92, 26, 386, 343, 327, 164, 276, 77, 37], [409, 121, 334, 332, 244, 218, 4, 345, 300, 293, 255, 242, 235, 163, 265, 415, 366, 208, 135, 94, 48, 15, 7, 388, 318, 236, 315, 435, 367, 292, 154, 153, 120, 51, 385, 20, 83, 10, 193, 175, 352, 279, 115, 204, 319, 344], [273, 119, 95, 88, 309, 234, 320, 256, 214, 203, 146, 431, 274, 150, 144, 132, 93, 370, 317, 312, 227, 219, 184, 170, 12, 322, 99, 47, 23, 138, 106, 74, 434, 229, 394, 49, 207, 168, 192], [194, 393, 157, 333, 264, 216, 117, 103, 50, 43, 310, 296, 254, 241, 224, 202, 447, 303, 408, 268, 42, 442, 414, 108, 24, 6, 443, 426, 44, 382, 178, 107, 448, 378, 29, 328, 126, 27], [311, 122, 424, 152, 61, 347, 130, 97, 237, 162, 427, 340, 177, 400, 246, 56, 17, 380, 55, 397], [133, 69, 151, 231, 75]]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,27 +546,27 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>mulsol.i.1.col</t>
+          <t>miles1000.col</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009887218475341797</v>
+        <v>0.0004410743713378906</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[[16, 1, 195, 193, 192, 189, 187, 185, 184, 182, 181, 179, 178, 174, 171, 170, 169, 167, 166, 158, 157, 155, 154, 142, 140, 139, 133, 132, 131, 123, 122, 121, 118, 115, 114, 112, 109, 105, 104, 102, 100, 99, 97, 96, 94, 93, 91, 88, 85, 83, 81, 80, 78, 77, 75, 71, 69, 68, 65, 60, 57], [0, 25], [38, 46], [39, 47], [40, 48], [41, 49], [2, 24], [42, 50], [43, 8], [13, 23], [44, 9], [12, 22], [45, 15], [56, 10], [55, 51], [11, 59], [58, 7], [21, 52], [20, 6], [19, 53], [61, 5, 188], [18, 54], [31, 4], [30, 14], [29, 3], [28, 66, 191, 190], [27, 64], [26, 79, 67], [17, 74], [63, 73, 186, 196], [62, 70, 194, 183], [87, 130, 159, 144, 76, 164, 152, 137, 134, 37, 165, 153, 138, 135, 129, 128, 127, 126, 125, 124, 120], [86, 161, 148, 33, 177, 176, 175, 173, 172, 163, 162, 150, 149, 136], [84, 160, 146], [82], [106, 89], [103], [98], [90], [110, 92], [113, 95], [111, 101], [117, 107], [116], [119, 108], [32, 72], [34, 180, 168, 141], [143, 156, 36, 35], [151, 147, 145]]</t>
+          <t>[[75, 35, 15, 71, 20, 105], [26, 85, 86, 50, 55, 48], [127, 117, 36, 120, 8, 94], [87, 11, 21, 3, 33], [61, 30, 59, 4, 16], [90, 102, 2, 111], [67, 32, 118, 123], [7, 22, 31, 103], [91, 64, 43, 47, 58], [27, 56, 34, 25], [42, 83, 46, 17], [51, 97, 80, 28], [106, 73, 62, 39], [125, 54, 41, 76], [122, 79, 49, 53], [109, 92, 10, 14], [65, 0, 84], [98, 12, 119], [63, 82, 96], [107, 9], [114, 101], [113, 95], [99, 110], [74, 89], [44, 66, 104], [121, 116, 93], [126, 78], [1, 38], [6, 69], [112, 108], [72, 70, 81], [68, 88], [19, 77], [29, 100], [23, 18], [13, 40], [37, 124], [115], [57, 5], [52], [24], [45], [60]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,27 +575,27 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>school1.col.txt</t>
+          <t>miles1500.col</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002076864242553711</v>
+        <v>0.0007638931274414062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[[373, 370, 374, 369, 372, 371, 362, 356, 228, 360, 167, 361, 104, 161, 12, 312, 382, 187, 193, 240, 235, 315, 314, 283, 135], [367, 366, 364, 368, 365, 363, 376, 375, 377, 379, 352, 354, 98, 353, 139, 184, 192, 313, 284, 137, 136, 103], [233, 384, 383, 249, 151, 123, 328, 325, 304, 73, 90, 273, 350, 279, 65, 220, 5, 182, 110, 260, 229, 95, 359, 194, 381, 39], [232, 237, 152, 148, 27, 4, 158, 118, 116, 185, 327, 21, 43, 308, 85], [120, 236, 18, 330, 154, 196, 100, 166, 9, 114, 141, 155, 56, 380, 186], [17, 144, 227, 329, 202, 160, 130, 109, 261, 2, 51, 175, 1], [124, 239, 20, 305, 230, 38, 197, 149, 170, 50, 157, 8, 117, 99, 378], [251, 339, 119, 19, 231, 178, 31, 55, 6, 84], [252, 190, 143, 126, 102, 200, 177, 47, 63, 26, 174, 210], [338, 122, 179, 49, 199, 70, 34, 322, 301, 159, 106, 326], [29, 150, 153, 127, 15, 97, 61, 275, 281, 225, 169, 32, 113, 115, 234, 140], [250, 121, 241, 80, 77, 91, 341, 286, 58, 344, 162, 107], [245, 142, 125, 300, 33, 317, 271, 277, 221, 209, 171, 13], [86, 355, 246, 318, 188, 96, 268, 67, 289, 207, 262, 132], [248, 82, 37, 324, 201, 195, 163, 208, 145, 131], [74, 83, 36, 347, 280, 92, 274, 244, 224, 276, 357, 134, 112, 358, 7], [253, 307, 238, 191, 128, 30, 66, 288, 266, 164, 226, 156, 54, 111], [294, 310, 45, 76, 320, 205, 60, 35, 218], [254, 333, 222, 258, 298, 214, 72, 323, 278, 64, 336, 272, 183], [88, 71, 41, 78, 265, 319, 285, 173], [147, 306, 242, 16, 59, 259, 342, 349, 287, 217, 345, 23], [87, 69, 46, 75, 94, 290, 146, 340, 343], [348, 309, 295, 48, 44, 270, 267, 105, 53], [292, 89, 257, 247, 198, 22, 206, 172, 101], [291, 303, 108, 28, 181, 263, 25, 133], [213, 296, 42, 11, 311, 68, 269, 0], [168, 299, 189, 223, 40, 203, 282, 62, 93, 219, 3], [297, 334, 302, 176, 331, 79, 57, 138, 264, 52], [293, 243, 346, 81, 337, 24], [335, 332, 204, 256, 14, 351, 321], [129, 215, 180, 10, 255, 316], [212], [216, 165], [211]]</t>
+          <t>[[109, 53], [107, 28], [78, 76], [108, 85, 62], [26, 2], [127, 111, 41], [116, 59, 14], [113, 105, 80], [104, 55, 8], [89, 21, 49], [79, 60, 58], [73, 94, 48], [38, 20], [124, 123], [101, 117, 103], [77, 39], [42, 47], [7, 25], [0, 81, 17], [99, 10], [91, 4], [90, 3], [87, 84], [75, 16], [72], [67], [61], [27, 36], [18], [100], [98, 86], [51, 46], [66, 34], [63, 120], [121, 50], [69, 33], [65], [56, 35], [54], [122], [106], [97, 52], [125, 31], [114, 119], [96, 22], [6, 118], [102, 57], [30, 93], [32, 126], [74, 15], [44, 11], [70, 64], [68, 71], [95], [88], [13, 43], [5], [1], [82], [12], [112], [92], [83], [9], [110], [19], [29], [23], [115], [45], [40], [24], [37]]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -604,27 +604,27 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>le450_5a.col</t>
+          <t>myciel3.col.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002382993698120117</v>
+        <v>6.914138793945312e-06</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[[338, 324, 209, 270, 392, 390, 250, 215, 80, 222, 155, 59, 429, 210, 105, 423, 260, 220, 190, 365, 262, 54, 440, 387, 5, 174, 158, 360, 376, 330, 232, 127, 402, 389, 243, 90, 45, 160, 100, 217, 212, 405, 430, 395, 249, 137, 30], [369, 165, 63, 25, 189, 285, 31, 211, 159, 245, 205, 156, 84, 213, 36, 383, 364, 240, 65, 60, 371, 342, 70, 403, 134, 71, 420, 295, 101, 355, 288, 326, 301, 19, 305, 195, 396, 275, 180, 79, 16, 377, 238, 432, 281, 96], [362, 337, 199, 187, 39, 32, 182, 89, 109, 35, 359, 269, 197, 413, 85, 449, 379, 114, 407, 354, 226, 113, 104, 3, 357, 278, 257, 294, 290, 258, 18, 372, 147, 444, 374, 298, 228, 384, 67, 422, 297, 252, 73, 247, 142, 22, 8, 398, 87, 53, 233, 223, 82], [412, 140, 411, 11, 445, 263, 401, 272, 261, 161, 112, 110, 350, 291, 191, 171, 125, 267, 225, 314, 196, 58, 341, 335, 179, 64, 145, 91, 416, 404, 346, 304, 251, 201, 176, 166, 9, 259, 111, 66, 0, 351, 286, 181, 116, 358, 381, 271, 1, 336, 306], [239, 439, 183, 38, 282, 141, 72, 253, 124, 410, 287, 143, 323, 313, 173, 62, 57, 41, 406, 428, 418, 284, 248, 52, 33, 436, 368, 353, 349, 325, 283, 169, 34, 28, 13, 198, 149, 68, 363, 123, 118, 373, 188, 148, 399, 348, 277, 308, 167, 98, 78, 128, 329, 419, 321], [102, 356, 139, 417, 14, 433, 421, 391, 331, 299, 186, 2, 361, 81, 46, 40, 446, 437, 307, 302, 266, 129, 230, 206, 86, 441, 425, 289, 172, 136, 21, 438, 316, 200, 280, 185, 131, 76, 375, 339, 221, 92, 26, 386, 343, 327, 164, 276, 77, 37], [409, 121, 334, 332, 244, 218, 4, 345, 300, 293, 255, 242, 235, 163, 265, 415, 366, 208, 135, 94, 48, 15, 7, 388, 318, 236, 315, 435, 367, 292, 154, 153, 120, 51, 385, 20, 83, 10, 193, 175, 352, 279, 115, 204, 319, 344], [273, 119, 95, 88, 309, 234, 320, 256, 214, 203, 146, 431, 274, 150, 144, 132, 93, 370, 317, 312, 227, 219, 184, 170, 12, 322, 99, 47, 23, 138, 106, 74, 434, 229, 394, 49, 207, 168, 192], [194, 393, 157, 333, 264, 216, 117, 103, 50, 43, 310, 296, 254, 241, 224, 202, 447, 303, 408, 268, 42, 442, 414, 108, 24, 6, 443, 426, 44, 382, 178, 107, 448, 378, 29, 328, 126, 27], [311, 122, 424, 152, 61, 347, 130, 97, 237, 162, 427, 340, 177, 400, 246, 56, 17, 380, 55, 397], [133, 69, 151, 231, 75]]</t>
+          <t>[[10, 4, 1], [3, 2, 8, 7], [0, 9, 5], [6]]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -642,18 +642,18 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>huck.col</t>
+          <t>myciel7.col.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>9.489059448242188e-05</v>
+        <v>0.0004580020904541016</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[[54, 42, 37, 70, 62, 57, 36, 69, 60, 32, 27, 25], [3, 43, 58, 16, 71, 73, 52, 35, 23, 65, 64, 47, 14, 53, 6], [56, 48, 51, 22, 41, 44, 34, 31, 15], [40, 8, 49, 63, 29], [0, 72, 61, 17, 38, 50, 2], [21, 59, 39, 66, 30, 1, 33, 9], [28, 26, 46, 20, 13, 68, 45], [24, 67, 11, 19, 7], [12, 55, 5], [10, 18], [4]]</t>
+          <t>[[190, 94, 46, 22, 10, 4, 1], [3, 2, 189, 45, 8, 7, 117, 26, 25, 98, 97, 31, 30, 140, 103, 102, 164, 121, 120, 145, 144, 126, 125, 187, 150, 149, 132, 131, 168, 167, 137, 136, 173, 172, 179, 178, 184, 183], [0, 93, 21, 141, 57, 105, 15, 13, 11, 47, 95, 68, 188, 116, 152, 62, 60, 58, 110, 108, 106, 142, 163, 175, 157, 155, 153, 165, 162, 160, 158, 186, 180, 176, 185, 181], [9, 6, 5, 69, 27, 51, 99, 32, 29, 28, 92, 56, 53, 52, 104, 101, 100, 74, 122, 146, 67, 64, 63, 79, 76, 75, 127, 124, 123, 151, 148, 147, 85, 90, 87, 86, 169, 159, 174, 171, 170, 182], [33, 14, 12, 24, 50, 48, 96, 44, 80, 37, 35, 128, 61, 59, 109, 107, 73, 71, 42, 40, 119, 143, 91, 78, 139, 84, 82, 130, 156, 154, 89, 166, 135, 177], [23, 49, 18, 16, 54, 36, 34, 72, 70, 41, 39, 118, 65, 113, 111, 77, 83, 81, 129, 88, 134], [20, 19, 17, 55, 43, 66, 115, 114, 112, 138, 161], [38, 133]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -671,18 +671,18 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>le450_15b.col</t>
+          <t>queen11_11.col</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002119064331054688</v>
+        <v>0.0003118515014648438</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[[31, 199, 364, 416, 286, 74, 13, 188, 437, 443, 209, 130, 282, 151, 71, 355, 110, 424, 433, 141, 149, 229, 162, 400, 439, 446, 58, 49, 326, 438, 212, 102, 107, 50, 91, 346, 390, 235], [114, 300, 356, 156, 48, 305, 116, 281, 140, 67, 315, 215, 391, 234, 420, 254, 330, 159, 296, 219, 191, 359, 404, 347, 290, 230, 32, 208, 39, 8, 59, 185, 90, 381, 158, 47, 100, 406, 28], [398, 182, 428, 360, 238, 152, 358, 412, 120, 413, 46, 34, 181, 321, 374, 427, 278, 224, 409, 272, 397, 142, 383, 226, 176, 245, 389, 352], [269, 237, 440, 312, 214, 29, 73, 220, 418, 76, 289, 216, 136, 274, 148, 419, 407, 2, 87, 337, 101, 414, 128, 56, 291], [396, 402, 322, 221, 287, 342, 137, 368, 401, 168, 251, 54, 334, 246, 179, 85, 89, 332, 293, 350, 72, 60, 270, 240, 429, 115, 349, 408], [333, 268, 3, 83, 318, 218, 198, 373, 275, 279, 259, 200, 123, 69, 241, 189, 228, 147, 138, 421, 423, 66, 92, 385, 68, 233, 361, 206, 422, 26], [4, 425, 175, 295, 144, 257, 75, 379, 260, 247, 174, 435, 40, 348, 271, 165, 253, 169, 25, 98, 5, 403, 320, 93, 288, 23, 380, 133, 27], [399, 122, 243, 124, 9, 163, 365, 53, 20, 132, 211, 426, 265, 335, 393, 167, 113, 306, 10, 11, 301, 354, 139, 106], [52, 292, 266, 207, 164, 370, 45, 44, 351, 340, 38, 261, 112, 134, 161, 273, 14, 316, 79, 65, 193, 30, 309, 432, 213, 51], [328, 86, 250, 392, 231, 0, 327, 277, 377, 131, 6, 311, 263, 201, 119, 372, 367, 217, 387, 197, 7, 285, 173, 127, 294], [242, 319, 121, 36, 22, 61, 384, 111, 449, 203, 187, 118, 184, 109, 378, 227, 366, 146, 314, 225, 135, 280, 196, 21, 108, 84, 12, 386], [339, 99, 298, 95, 16, 284, 205, 15, 304, 70, 177, 264, 1, 180, 145, 97, 376, 43, 345, 150, 18, 441, 317, 382, 154, 125], [249, 344, 78, 436, 195, 204, 262, 210, 434, 252, 117, 303, 239, 448, 442, 299, 126, 94, 445, 157, 302, 369, 447, 129, 341, 313], [363, 77, 415, 297, 35, 329, 96, 88, 236, 190, 223, 80, 37, 343, 353, 192, 172, 283, 186, 153, 183, 178, 405, 33, 222, 411], [331, 232, 410, 62, 325, 160, 17, 143, 82, 24, 430, 55, 388, 105, 444, 323, 81, 324, 307, 362, 63, 256, 394, 248], [310, 338, 267, 103, 431, 244, 308, 395, 375, 357, 57, 336, 41, 64, 276], [171, 166, 371, 202, 258, 417, 42, 19, 170], [104, 155, 255, 194]]</t>
+          <t>[[60, 83, 69, 51, 37, 118, 88, 32, 2], [72, 59, 80, 38, 46, 97, 111, 7], [71, 50, 84, 58, 92, 19, 109, 33], [70, 61, 47, 96, 79, 104, 42, 117], [49, 81, 62, 36, 94, 68, 30, 119], [48, 82, 73, 39, 91, 57, 107, 20], [40, 93, 85, 26, 108, 67, 116, 54, 11, 3], [95, 74, 28, 103, 56, 13, 120, 77, 9], [90, 63, 29, 105, 86, 34, 16, 0], [52, 35, 27, 106, 89, 14, 114, 65, 6], [41, 25, 100, 75, 18, 98, 44], [24, 102, 64, 45, 17, 115, 87, 8], [101, 78, 53, 15, 110, 76], [31, 12, 113, 99, 10], [23, 112, 66, 43, 5], [55, 21, 4], [22, 1]]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -691,27 +691,27 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>anna.col</t>
+          <t>school1.col.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002050399780273438</v>
+        <v>0.00217890739440918</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[[17, 76, 132, 60, 119, 29, 114, 125, 136, 121, 46, 16, 133, 116, 109, 97, 64, 51, 21, 13, 118, 101, 37, 23, 128, 124, 85, 70, 65, 55, 47, 4, 2, 1, 0], [35, 77, 53, 28, 67, 100, 8, 108, 52, 48, 111, 93, 57, 103, 96, 89, 83, 81, 61, 59, 54, 43, 24, 131, 127, 123, 110, 104, 95, 74, 68, 62, 40, 9, 120, 113, 112, 106, 87, 86, 42, 41, 38, 30, 26, 22, 14, 3], [94, 88, 20, 6, 126, 58, 56, 129, 15, 122, 130, 27, 102, 66, 39, 34, 10, 79, 49, 7], [73, 63, 99, 69, 117, 105, 92, 78, 36, 12, 11], [71, 135, 91, 75, 45, 33], [137, 72, 50, 5, 25], [134, 32, 44, 31, 18], [115, 19, 84, 82], [98, 107], [90], [80]]</t>
+          <t>[[373, 370, 374, 369, 372, 371, 362, 356, 228, 360, 167, 361, 104, 161, 12, 312, 382, 187, 193, 240, 235, 315, 314, 283, 135], [367, 366, 364, 368, 365, 363, 376, 375, 377, 379, 352, 354, 98, 353, 139, 184, 192, 313, 284, 137, 136, 103], [233, 384, 383, 249, 151, 123, 328, 325, 304, 73, 90, 273, 350, 279, 65, 220, 5, 182, 110, 260, 229, 95, 359, 194, 381, 39], [232, 237, 152, 148, 27, 4, 158, 118, 116, 185, 327, 21, 43, 308, 85], [120, 236, 18, 330, 154, 196, 100, 166, 9, 114, 141, 155, 56, 380, 186], [17, 144, 227, 329, 202, 160, 130, 109, 261, 2, 51, 175, 1], [124, 239, 20, 305, 230, 38, 197, 149, 170, 50, 157, 8, 117, 99, 378], [251, 339, 119, 19, 231, 178, 31, 55, 6, 84], [252, 190, 143, 126, 102, 200, 177, 47, 63, 26, 174, 210], [338, 122, 179, 49, 199, 70, 34, 322, 301, 159, 106, 326], [29, 150, 153, 127, 15, 97, 61, 275, 281, 225, 169, 32, 113, 115, 234, 140], [250, 121, 241, 80, 77, 91, 341, 286, 58, 344, 162, 107], [245, 142, 125, 300, 33, 317, 271, 277, 221, 209, 171, 13], [86, 355, 246, 318, 188, 96, 268, 67, 289, 207, 262, 132], [248, 82, 37, 324, 201, 195, 163, 208, 145, 131], [74, 83, 36, 347, 280, 92, 274, 244, 224, 276, 357, 134, 112, 358, 7], [253, 307, 238, 191, 128, 30, 66, 288, 266, 164, 226, 156, 54, 111], [294, 310, 45, 76, 320, 205, 60, 35, 218], [254, 333, 222, 258, 298, 214, 72, 323, 278, 64, 336, 272, 183], [88, 71, 41, 78, 265, 319, 285, 173], [147, 306, 242, 16, 59, 259, 342, 349, 287, 217, 345, 23], [87, 69, 46, 75, 94, 290, 146, 340, 343], [348, 309, 295, 48, 44, 270, 267, 105, 53], [292, 89, 257, 247, 198, 22, 206, 172, 101], [291, 303, 108, 28, 181, 263, 25, 133], [213, 296, 42, 11, 311, 68, 269, 0], [168, 299, 189, 223, 40, 203, 282, 62, 93, 219, 3], [297, 334, 302, 176, 331, 79, 57, 138, 264, 52], [293, 243, 346, 81, 337, 24], [335, 332, 204, 256, 14, 351, 321], [129, 215, 180, 10, 255, 316], [212], [216, 165], [211]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -720,27 +720,27 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>miles1000.col</t>
+          <t>school1_nsh.col.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004589557647705078</v>
+        <v>0.001771688461303711</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[75, 35, 15, 71, 20, 105], [26, 85, 86, 50, 55, 48], [127, 117, 36, 120, 8, 94], [87, 11, 21, 3, 33], [61, 30, 59, 4, 16], [90, 102, 2, 111], [67, 32, 118, 123], [7, 22, 31, 103], [91, 64, 43, 47, 58], [27, 56, 34, 25], [42, 83, 46, 17], [51, 97, 80, 28], [106, 73, 62, 39], [125, 54, 41, 76], [122, 79, 49, 53], [109, 92, 10, 14], [65, 0, 84], [98, 12, 119], [63, 82, 96], [107, 9], [114, 101], [113, 95], [99, 110], [74, 89], [44, 66, 104], [121, 116, 93], [126, 78], [1, 38], [6, 69], [112, 108], [72, 70, 81], [68, 88], [19, 77], [29, 100], [23, 18], [13, 40], [37, 124], [115], [57, 5], [52], [24], [45], [60]]</t>
+          <t>[[233, 237, 152, 123, 4, 158, 182, 53, 112, 141, 185, 228, 327, 21, 104, 312, 308, 240, 235, 192, 85, 315, 314, 283, 135], [232, 236, 154, 102, 90, 350, 173, 0, 155, 194, 12, 313, 284, 137, 136, 103], [120, 18, 227, 230, 74, 160, 34, 347, 244, 203, 343, 2, 111, 175, 43, 98, 187, 193, 1, 39], [124, 239, 20, 305, 38, 30, 108, 64, 149, 170, 156, 50, 8, 99, 56, 184], [249, 151, 153, 328, 83, 76, 93, 169, 118, 116, 234, 140, 186, 161], [17, 144, 329, 86, 178, 42, 109, 278, 272, 225, 7, 167], [251, 339, 190, 122, 19, 231, 260, 95, 107, 138, 6], [252, 150, 29, 126, 179, 238, 342, 14, 164, 51, 262, 115, 139], [338, 119, 330, 49, 199, 197, 293, 346, 243, 265, 176, 322, 198, 285, 166, 301, 255, 106, 145, 326], [250, 143, 82, 36, 200, 317, 168, 77, 216, 219, 114, 132], [121, 245, 241, 294, 306, 41, 286, 341, 58, 256, 344, 218, 101, 54], [127, 142, 246, 325, 309, 201, 48, 44, 277, 195, 271, 209, 113], [125, 253, 307, 191, 196, 33, 78, 91, 208, 117], [248, 148, 177, 310, 63, 10, 62, 105, 316, 131], [300, 128, 88, 60, 280, 274, 94, 276, 319], [254, 37, 188, 242, 320, 298, 162, 336, 289, 67, 207], [15, 147, 202, 257, 189, 323, 26, 134], [73, 45, 318, 205, 279, 273, 337, 65, 220, 5], [304, 222, 348, 258, 295, 35, 75, 290, 340, 57, 217, 163, 211], [213, 87, 324, 96, 270, 159, 288, 351, 23, 84], [71, 89, 92, 27, 259, 332, 311, 275, 281, 206, 171, 226], [70, 247, 292, 46, 11, 130, 97, 267, 287, 345, 264, 52], [333, 80, 214, 146, 100, 268, 180, 32], [69, 303, 181, 331, 68, 269, 263, 25, 13, 133], [299, 81, 59, 40, 66, 22, 174], [16, 31, 224, 129, 61, 266, 165, 24, 55], [296, 47, 79, 282, 261, 172, 210], [297, 302, 334, 349, 9, 110], [291, 28, 223, 229, 183, 157, 321], [72, 204, 221, 3], [335], [215], [212]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -749,125 +749,9 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>myciel7.col.txt</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004532337188720703</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[[190, 94, 46, 22, 10, 4, 1], [3, 2, 189, 45, 8, 7, 117, 26, 25, 98, 97, 31, 30, 140, 103, 102, 164, 121, 120, 145, 144, 126, 125, 187, 150, 149, 132, 131, 168, 167, 137, 136, 173, 172, 179, 178, 184, 183], [0, 93, 21, 141, 57, 105, 15, 13, 11, 47, 95, 68, 188, 116, 152, 62, 60, 58, 110, 108, 106, 142, 163, 175, 157, 155, 153, 165, 162, 160, 158, 186, 180, 176, 185, 181], [9, 6, 5, 69, 27, 51, 99, 32, 29, 28, 92, 56, 53, 52, 104, 101, 100, 74, 122, 146, 67, 64, 63, 79, 76, 75, 127, 124, 123, 151, 148, 147, 85, 90, 87, 86, 169, 159, 174, 171, 170, 182], [33, 14, 12, 24, 50, 48, 96, 44, 80, 37, 35, 128, 61, 59, 109, 107, 73, 71, 42, 40, 119, 143, 91, 78, 139, 84, 82, 130, 156, 154, 89, 166, 135, 177], [23, 49, 18, 16, 54, 36, 34, 72, 70, 41, 39, 118, 65, 113, 111, 77, 83, 81, 129, 88, 134], [20, 19, 17, 55, 43, 66, 115, 114, 112, 138, 161], [38, 133]]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>latin_square_10.col.txt</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>219</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02045392990112305</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[[899, 790, 701, 601, 512, 420, 322, 233, 141, 50], [898, 799, 710, 600, 421, 321, 142], [897, 798, 609, 521, 430, 320, 51], [896, 797, 608, 329, 242, 151, 60], [895, 796, 607, 328], [894, 795, 606, 327], [893, 794, 605, 326], [892, 793, 604, 325], [891, 792, 603, 324], [890, 791, 700, 602, 511, 323, 232], [889, 808, 719, 591, 502, 413, 330, 241, 152, 59], [888, 807, 590, 339, 250, 161, 68], [887, 806, 599, 422, 338, 69], [886, 805, 598, 337], [885, 804, 597, 336], [884, 803, 596, 335], [883, 802, 595, 334], [882, 801, 594, 333], [881, 800, 709, 593, 501, 412, 332, 240], [880, 809, 718, 592, 331], [879, 770, 681, 627, 538, 446, 348, 259, 167, 80], [878, 779, 690, 626, 447, 347, 168], [877, 778, 625, 346], [876, 777, 624, 345], [875, 776, 623, 344], [874, 775, 622, 343], [873, 774, 621, 342], [872, 773, 680, 620, 528, 437, 341, 249, 158, 70], [871, 772, 629, 537, 340, 71], [870, 771, 628, 349, 258], [869, 788, 699, 617, 439, 356, 267, 178, 89], [868, 787, 616, 355], [867, 786, 615, 354], [866, 785, 614, 353], [865, 784, 613, 352], [864, 783, 612, 351], [863, 782, 689, 611, 518, 429, 350, 257, 79], [862, 781, 610, 359, 266, 177, 88], [861, 780, 619, 527, 438, 358], [860, 789, 698, 618, 357], [859, 750, 661, 561, 472, 380, 282, 193, 101, 10], [858, 759, 670, 560, 381, 281, 102], [857, 758, 569, 481, 390, 280, 11], [856, 757, 568, 289, 202, 111, 20], [855, 756, 567, 288], [854, 755, 660, 566, 471, 287, 192], [853, 754, 565, 286], [852, 753, 564, 285], [851, 752, 563, 284], [850, 751, 562, 283], [849, 768, 679, 551, 462, 373, 290, 201, 112, 19], [848, 767, 550, 299, 210, 121, 28], [847, 766, 559, 382, 298, 29], [846, 765, 558, 297], [845, 764, 669, 557, 461, 372, 296, 200], [844, 763, 556, 295], [843, 762, 555, 294], [842, 761, 554, 293], [841, 760, 553, 292], [840, 769, 678, 552, 291], [839, 730, 641, 587, 498, 406, 308, 219, 127, 40], [838, 739, 650, 586, 407, 307, 128], [837, 738, 585, 306], [836, 737, 640, 584, 488, 397, 305, 209, 118, 30], [835, 736, 583, 304], [834, 735, 582, 303], [833, 734, 581, 302], [832, 733, 580, 301], [831, 732, 589, 497, 300, 31], [830, 731, 588, 309, 218], [829, 748, 659, 577, 399, 316, 227, 138, 49], [828, 747, 576, 315], [827, 746, 649, 575, 478, 389, 314, 217, 39], [826, 745, 574, 313], [825, 744, 573, 312], [824, 743, 572, 311], [823, 742, 571, 310], [822, 741, 570, 319, 226, 137, 48], [821, 740, 579, 487, 398, 318], [820, 749, 658, 578, 317], [819, 712, 523, 440, 244], [818, 702, 513, 234], [817, 711, 504, 243], [816, 684, 531, 252], [815, 693, 522, 261], [814, 666, 477, 198], [813, 675, 468, 207], [812, 648, 495, 216], [811, 657, 486, 225], [810, 449, 160], [729, 647, 530, 433, 251, 154], [728, 637, 520, 423, 223, 126, 42], [727, 638, 503, 405, 224], [726, 635, 500, 221], [725, 636, 529, 432, 268, 171], [724, 633, 535, 441, 256, 162], [723, 634, 536, 248, 153], [722, 631, 533, 254], [721, 632, 534, 255], [720, 539, 214, 117, 35], [717, 549, 464, 377, 230, 143, 46], [716, 547, 454, 368, 239, 54], [715, 546, 453, 238], [714, 545, 452, 246, 63], [713, 544, 451, 245], [708, 548, 455, 367, 212, 124, 27], [707, 543, 211], [706, 542, 265, 179, 81], [705, 541, 264], [704, 540, 263], [703, 532, 276, 180, 97, 8], [697, 526, 279, 105, 16], [696, 525, 278, 182, 96, 7], [695, 524, 275, 181], [694, 505, 277, 5], [692, 494, 401, 274, 188, 95, 3], [691, 493, 272, 187], [688, 517, 271, 183, 6], [687, 516, 273], [686, 515, 270], [685, 514, 262], [683, 485, 391, 260, 75], [682, 484, 269, 176, 84], [677, 506, 419, 190, 103, 14], [676, 469, 253, 74], [674, 476, 215, 120], [673, 475, 196], [672, 510, 418, 231, 139], [671, 519, 427, 203, 24], [668, 479, 236, 148, 57], [667, 496, 409, 235], [665, 467, 371, 206, 110], [664, 466, 205], [663, 492, 204, 21], [662, 491, 194, 12], [656, 458, 361, 197, 100, 9], [655, 457, 173], [654, 483, 222], [653, 482, 185, 91, 2], [652, 509, 416, 220, 41], [651, 508, 247, 155], [646, 442, 145, 62], [645, 474, 379, 213], [644, 473, 172, 83], [643, 490, 184, 90], [642, 499, 163, 77], [639, 424, 136], [630, 414, 208, 32], [507, 415, 228], [489, 404, 237, 58], [480, 395, 229], [470, 386, 191, 107], [465, 376, 186, 0], [463, 375, 169, 73], [460, 374, 159, 64], [459, 370, 164], [456, 365, 195, 104], [450, 366, 199, 114, 18], [448, 189, 17], [445, 166], [444, 165], [443, 146], [436, 175], [435, 174], [434, 119, 34], [431, 170], [428, 149], [426, 147], [425, 33], [417, 156], [411, 150], [410, 131], [408, 129], [403, 115], [402, 123], [400, 94], [396, 144], [394, 133], [393, 132], [392, 140], [388, 109], [387, 135], [385, 106], [384, 56], [383, 122], [378, 99], [369, 108], [364, 130, 36], [363, 157], [362, 72], [360, 45], [134, 43], [125], [116, 25], [113, 26], [98, 4], [93, 1], [92], [87], [86], [85], [82], [78], [76], [67], [66], [65], [61], [55], [53], [52], [47], [44], [38], [37], [23], [22], [15], [13]]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>97</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>jean.col.txt</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0001108646392822266</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[[36, 33, 32, 15, 25, 75, 17, 73, 53, 41, 22, 7, 79, 64, 51, 50, 40, 35, 31, 23, 12, 11, 0, 70, 48, 20], [71, 2, 58, 47, 13, 38, 42, 44, 30, 69, 66, 61, 60, 55, 52], [14, 27, 3, 72, 21, 74, 77, 59, 10], [56, 8, 4, 76, 68, 45, 63, 29, 1], [65, 43, 5, 62, 28, 19], [18, 57, 39, 16], [6, 54, 26, 9], [78, 34, 46, 24], [67], [37, 49]]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>school1_nsh.col.txt</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>33</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.001690864562988281</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[[233, 237, 152, 123, 4, 158, 182, 53, 112, 141, 185, 228, 327, 21, 104, 312, 308, 240, 235, 192, 85, 315, 314, 283, 135], [232, 236, 154, 102, 90, 350, 173, 0, 155, 194, 12, 313, 284, 137, 136, 103], [120, 18, 227, 230, 74, 160, 34, 347, 244, 203, 343, 2, 111, 175, 43, 98, 187, 193, 1, 39], [124, 239, 20, 305, 38, 30, 108, 64, 149, 170, 156, 50, 8, 99, 56, 184], [249, 151, 153, 328, 83, 76, 93, 169, 118, 116, 234, 140, 186, 161], [17, 144, 329, 86, 178, 42, 109, 278, 272, 225, 7, 167], [251, 339, 190, 122, 19, 231, 260, 95, 107, 138, 6], [252, 150, 29, 126, 179, 238, 342, 14, 164, 51, 262, 115, 139], [338, 119, 330, 49, 199, 197, 293, 346, 243, 265, 176, 322, 198, 285, 166, 301, 255, 106, 145, 326], [250, 143, 82, 36, 200, 317, 168, 77, 216, 219, 114, 132], [121, 245, 241, 294, 306, 41, 286, 341, 58, 256, 344, 218, 101, 54], [127, 142, 246, 325, 309, 201, 48, 44, 277, 195, 271, 209, 113], [125, 253, 307, 191, 196, 33, 78, 91, 208, 117], [248, 148, 177, 310, 63, 10, 62, 105, 316, 131], [300, 128, 88, 60, 280, 274, 94, 276, 319], [254, 37, 188, 242, 320, 298, 162, 336, 289, 67, 207], [15, 147, 202, 257, 189, 323, 26, 134], [73, 45, 318, 205, 279, 273, 337, 65, 220, 5], [304, 222, 348, 258, 295, 35, 75, 290, 340, 57, 217, 163, 211], [213, 87, 324, 96, 270, 159, 288, 351, 23, 84], [71, 89, 92, 27, 259, 332, 311, 275, 281, 206, 171, 226], [70, 247, 292, 46, 11, 130, 97, 267, 287, 345, 264, 52], [333, 80, 214, 146, 100, 268, 180, 32], [69, 303, 181, 331, 68, 269, 263, 25, 13, 133], [299, 81, 59, 40, 66, 22, 174], [16, 31, 224, 129, 61, 266, 165, 24, 55], [296, 47, 79, 282, 261, 172, 210], [297, 302, 334, 349, 9, 110], [291, 28, 223, 229, 183, 157, 321], [72, 204, 221, 3], [335], [215], [212]]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>21</v>
-      </c>
-      <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
